--- a/Precision oncology coding systems.xlsx
+++ b/Precision oncology coding systems.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/warnerj5/HemOnc.org Dropbox/Jeremy Warner/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/warnerj5/HemOnc.org Dropbox/Jeremy Warner/drug-term-normalization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F951B1-14DF-3F43-8423-66B2435B0838}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EDDE42-D9DA-2C4B-A9DD-FAB3A46CADB9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="659">
   <si>
     <t>Example</t>
   </si>
@@ -2007,6 +2007,9 @@
   </si>
   <si>
     <t>https://oncokb.org/</t>
+  </si>
+  <si>
+    <t>http://atlasgeneticsoncology.org/</t>
   </si>
 </sst>
 </file>
@@ -2183,7 +2186,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2230,6 +2233,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2584,7 +2593,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F142" totalsRowShown="0">
   <autoFilter ref="A1:F142" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F142">
-    <sortCondition ref="A1:A142"/>
+    <sortCondition ref="B1:B142"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Coding System Short Name"/>
@@ -2911,10 +2920,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="115" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A30" sqref="A30"/>
-      <selection pane="topRight" activeCell="A142" sqref="A142"/>
+      <selection pane="topRight" activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2949,189 +2958,192 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>385</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>386</v>
       </c>
       <c r="C2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E2" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E2" s="22"/>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>317</v>
+        <v>575</v>
+      </c>
+      <c r="B3" t="s">
+        <v>574</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>577</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>578</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>576</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>274</v>
+        <v>180</v>
       </c>
       <c r="B4" t="s">
-        <v>449</v>
+        <v>203</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>172</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>579</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>439</v>
+        <v>288</v>
       </c>
       <c r="B5" t="s">
-        <v>440</v>
+        <v>332</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>527</v>
+        <v>289</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>518</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>466</v>
+        <v>122</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>580</v>
+        <v>116</v>
+      </c>
+      <c r="D6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>486</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>232</v>
+        <v>185</v>
       </c>
       <c r="B7" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="C7" t="s">
-        <v>234</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>495</v>
+        <v>172</v>
+      </c>
+      <c r="D7" s="1">
+        <v>90600020</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="B8" t="s">
-        <v>319</v>
+        <v>206</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>482</v>
+        <v>172</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10053571</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>255</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>256</v>
+        <v>321</v>
       </c>
       <c r="C9" t="s">
-        <v>257</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="E9" s="22"/>
+        <v>137</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>487</v>
+      </c>
       <c r="F9" t="s">
-        <v>259</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>204</v>
+        <v>321</v>
       </c>
       <c r="C10" t="s">
-        <v>178</v>
+        <v>253</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>173</v>
+        <v>254</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>487</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>466</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>486</v>
+        <v>58</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>580</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -3154,160 +3166,167 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>275</v>
+        <v>232</v>
+      </c>
+      <c r="B13" t="s">
+        <v>233</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>234</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>469</v>
+        <v>235</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>495</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>275</v>
+        <v>177</v>
+      </c>
+      <c r="B14" t="s">
+        <v>204</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>178</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>469</v>
+        <v>173</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>299</v>
+        <v>179</v>
+      </c>
+      <c r="B15" t="s">
+        <v>322</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>178</v>
       </c>
       <c r="D15" s="1">
-        <v>24747352</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>582</v>
+        <v>467</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>92</v>
+        <v>164</v>
+      </c>
+      <c r="B16" t="s">
+        <v>319</v>
       </c>
       <c r="C16" t="s">
-        <v>156</v>
+        <v>7</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>512</v>
+        <v>482</v>
       </c>
       <c r="F16" t="s">
-        <v>159</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1</v>
+        <v>255</v>
+      </c>
+      <c r="B17" t="s">
+        <v>256</v>
       </c>
       <c r="C17" t="s">
-        <v>241</v>
-      </c>
-      <c r="D17" s="1">
-        <v>13961</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>511</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E17" s="22"/>
       <c r="F17" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>182</v>
       </c>
       <c r="B18" t="s">
-        <v>321</v>
+        <v>205</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>172</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>487</v>
+        <v>183</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C19" t="s">
-        <v>253</v>
+        <v>103</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>254</v>
+        <v>102</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>487</v>
+        <v>509</v>
       </c>
       <c r="F19" t="s">
-        <v>242</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>179</v>
+        <v>654</v>
       </c>
       <c r="B20" t="s">
-        <v>322</v>
+        <v>655</v>
       </c>
       <c r="C20" t="s">
-        <v>178</v>
-      </c>
-      <c r="D20" s="1">
-        <v>467</v>
+        <v>58</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>653</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B21" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C21" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="F21" t="s">
         <v>19</v>
@@ -3315,104 +3334,98 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>185</v>
+        <v>602</v>
       </c>
       <c r="B22" t="s">
-        <v>207</v>
-      </c>
-      <c r="C22" t="s">
-        <v>172</v>
-      </c>
-      <c r="D22" s="1">
-        <v>90600020</v>
-      </c>
-      <c r="F22" t="s">
-        <v>19</v>
+        <v>603</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>184</v>
+        <v>604</v>
       </c>
       <c r="B23" t="s">
-        <v>206</v>
-      </c>
-      <c r="C23" t="s">
-        <v>172</v>
-      </c>
-      <c r="D23" s="1">
-        <v>10053571</v>
-      </c>
-      <c r="F23" t="s">
-        <v>19</v>
+        <v>605</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>508</v>
+        <v>32</v>
+      </c>
+      <c r="D24" s="1">
+        <v>673</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>489</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>353</v>
       </c>
       <c r="B25" t="s">
-        <v>324</v>
+        <v>354</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>190</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>509</v>
+        <v>355</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>351</v>
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>326</v>
       </c>
       <c r="C26" t="s">
-        <v>190</v>
+        <v>292</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>352</v>
+        <v>291</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>526</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>61</v>
+      </c>
+      <c r="B27" t="s">
+        <v>327</v>
       </c>
       <c r="C27" t="s">
         <v>58</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>144</v>
+        <v>62</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="F27" t="s">
         <v>63</v>
@@ -3420,87 +3433,95 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>636</v>
+        <v>629</v>
+      </c>
+      <c r="B28" t="s">
+        <v>630</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="1">
-        <v>4185</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>637</v>
-      </c>
+        <v>632</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="E28" s="23"/>
       <c r="F28" t="s">
-        <v>63</v>
+        <v>633</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>649</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>646</v>
+        <v>133</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>160</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>648</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="E29" s="22"/>
       <c r="F29" t="s">
-        <v>63</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>186</v>
+        <v>490</v>
       </c>
       <c r="B30" t="s">
-        <v>208</v>
+        <v>494</v>
       </c>
       <c r="C30" t="s">
-        <v>187</v>
+        <v>491</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>188</v>
+        <v>492</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>493</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>353</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="C31" t="s">
-        <v>190</v>
+        <v>15</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>355</v>
+        <v>86</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>497</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>300</v>
+        <v>613</v>
+      </c>
+      <c r="B32" t="s">
+        <v>616</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="1">
-        <v>32176418</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>584</v>
+        <v>614</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>617</v>
       </c>
       <c r="F32" t="s">
         <v>63</v>
@@ -3508,536 +3529,551 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>601</v>
+        <v>639</v>
+      </c>
+      <c r="B33" t="s">
+        <v>640</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>488</v>
+        <v>58</v>
+      </c>
+      <c r="D33" s="1">
+        <v>533</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>645</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>602</v>
+        <v>639</v>
       </c>
       <c r="B34" t="s">
-        <v>603</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>45</v>
+        <v>640</v>
+      </c>
+      <c r="C34" t="s">
+        <v>641</v>
+      </c>
+      <c r="D34" s="1">
+        <v>5142</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="F34" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>604</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>605</v>
+        <v>124</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>313</v>
+        <v>8</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>498</v>
+      </c>
+      <c r="F35" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>654</v>
+        <v>348</v>
       </c>
       <c r="B36" t="s">
-        <v>655</v>
+        <v>349</v>
       </c>
       <c r="C36" t="s">
-        <v>58</v>
+        <v>172</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>653</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="E36" s="22"/>
       <c r="F36" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>326</v>
+        <v>147</v>
       </c>
       <c r="C37" t="s">
-        <v>292</v>
+        <v>40</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>526</v>
+        <v>41</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>517</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>304</v>
+        <v>169</v>
+      </c>
+      <c r="B38" t="s">
+        <v>211</v>
       </c>
       <c r="C38" t="s">
-        <v>305</v>
+        <v>95</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>306</v>
+        <v>170</v>
       </c>
       <c r="E38" s="22"/>
       <c r="F38" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="B39" t="s">
-        <v>327</v>
+        <v>209</v>
       </c>
       <c r="C39" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>585</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E39" s="22"/>
       <c r="F39" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>109</v>
+        <v>97</v>
+      </c>
+      <c r="B40" t="s">
+        <v>210</v>
       </c>
       <c r="C40" t="s">
-        <v>402</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>401</v>
+        <v>99</v>
+      </c>
+      <c r="D40" s="1">
+        <v>172.9</v>
       </c>
       <c r="E40" s="22"/>
       <c r="F40" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>109</v>
+        <v>331</v>
+      </c>
+      <c r="B41" t="s">
+        <v>330</v>
       </c>
       <c r="C41" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E41" s="23" t="s">
-        <v>516</v>
+        <v>143</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>586</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>20</v>
+        <v>293</v>
       </c>
       <c r="B42" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>295</v>
       </c>
       <c r="D42" s="1">
-        <v>673</v>
-      </c>
-      <c r="E42" s="23" t="s">
-        <v>489</v>
+        <v>1943</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>470</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>293</v>
+      </c>
+      <c r="B43" t="s">
+        <v>294</v>
       </c>
       <c r="C43" t="s">
-        <v>305</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>307</v>
+        <v>318</v>
+      </c>
+      <c r="D43" s="1">
+        <v>610</v>
       </c>
       <c r="E43" s="22"/>
       <c r="F43" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>293</v>
+      </c>
+      <c r="B44" t="s">
+        <v>294</v>
       </c>
       <c r="C44" t="s">
-        <v>80</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E44" s="23" t="s">
-        <v>528</v>
+        <v>58</v>
+      </c>
+      <c r="D44" s="1">
+        <v>5893</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>470</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>81</v>
+        <v>262</v>
+      </c>
+      <c r="B45" t="s">
+        <v>260</v>
       </c>
       <c r="C45" t="s">
-        <v>83</v>
+        <v>305</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E45" s="23" t="s">
-        <v>496</v>
+        <v>306</v>
       </c>
       <c r="F45" t="s">
-        <v>20</v>
+        <v>263</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>490</v>
+        <v>269</v>
       </c>
       <c r="B46" t="s">
-        <v>494</v>
+        <v>260</v>
       </c>
       <c r="C46" t="s">
-        <v>491</v>
+        <v>3</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="E46" s="23" t="s">
-        <v>493</v>
+        <v>270</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>629</v>
+        <v>271</v>
       </c>
       <c r="B47" t="s">
-        <v>630</v>
+        <v>260</v>
       </c>
       <c r="C47" t="s">
-        <v>632</v>
+        <v>58</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="E47" s="23"/>
+        <v>272</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>587</v>
+      </c>
       <c r="F47" t="s">
-        <v>633</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>261</v>
       </c>
       <c r="B48" t="s">
-        <v>133</v>
+        <v>260</v>
       </c>
       <c r="C48" t="s">
-        <v>160</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E48" s="22"/>
+        <v>32</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>499</v>
+      </c>
       <c r="F48" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="B49" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="C49" t="s">
-        <v>295</v>
-      </c>
-      <c r="D49" s="1">
-        <v>1943</v>
-      </c>
-      <c r="E49" s="20" t="s">
-        <v>470</v>
+        <v>33</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>532</v>
       </c>
       <c r="F49" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="B50" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="C50" t="s">
-        <v>318</v>
-      </c>
-      <c r="D50" s="1">
-        <v>610</v>
-      </c>
-      <c r="E50" s="22"/>
+        <v>7</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>514</v>
+      </c>
       <c r="F50" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="B51" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="C51" t="s">
-        <v>58</v>
-      </c>
-      <c r="D51" s="1">
-        <v>5893</v>
-      </c>
-      <c r="E51" s="20" t="s">
-        <v>470</v>
+        <v>36</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>529</v>
       </c>
       <c r="F51" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>87</v>
+        <v>340</v>
       </c>
       <c r="B52" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="C52" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E52" s="23" t="s">
-        <v>497</v>
+        <v>341</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>520</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>575</v>
+        <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>574</v>
+        <v>131</v>
       </c>
       <c r="C53" t="s">
-        <v>577</v>
+        <v>7</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E53" s="23" t="s">
-        <v>576</v>
+        <v>132</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>500</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>613</v>
+        <v>358</v>
       </c>
       <c r="B54" t="s">
-        <v>616</v>
+        <v>359</v>
       </c>
       <c r="C54" t="s">
-        <v>614</v>
+        <v>360</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="E54" s="25" t="s">
-        <v>617</v>
+        <v>361</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>510</v>
       </c>
       <c r="F54" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>385</v>
+        <v>606</v>
       </c>
       <c r="B55" t="s">
-        <v>386</v>
-      </c>
-      <c r="C55" t="s">
-        <v>387</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="E55" s="22"/>
-      <c r="F55" t="s">
-        <v>361</v>
+        <v>607</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>639</v>
+        <v>191</v>
       </c>
       <c r="B56" t="s">
-        <v>640</v>
+        <v>213</v>
       </c>
       <c r="C56" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="D56" s="1">
-        <v>533</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>645</v>
+        <v>10025650</v>
       </c>
       <c r="F56" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>639</v>
+        <v>174</v>
       </c>
       <c r="B57" t="s">
-        <v>640</v>
+        <v>215</v>
       </c>
       <c r="C57" t="s">
-        <v>641</v>
-      </c>
-      <c r="D57" s="1">
-        <v>5142</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>645</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E57" s="22"/>
       <c r="F57" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>174</v>
       </c>
       <c r="B58" t="s">
-        <v>124</v>
+        <v>215</v>
       </c>
       <c r="C58" t="s">
-        <v>7</v>
+        <v>224</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="23" t="s">
-        <v>498</v>
+        <v>225</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>588</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>316</v>
+        <v>192</v>
+      </c>
+      <c r="B59" t="s">
+        <v>214</v>
       </c>
       <c r="C59" t="s">
-        <v>49</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E59" s="22"/>
+        <v>172</v>
+      </c>
+      <c r="D59" s="1">
+        <v>321</v>
+      </c>
       <c r="F59" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="B60" t="s">
-        <v>349</v>
-      </c>
-      <c r="C60" t="s">
-        <v>172</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="E60" s="22"/>
+        <v>367</v>
+      </c>
       <c r="F60" t="s">
-        <v>19</v>
+        <v>368</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>39</v>
+        <v>189</v>
       </c>
       <c r="B61" t="s">
-        <v>147</v>
+        <v>212</v>
       </c>
       <c r="C61" t="s">
-        <v>40</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E61" s="23" t="s">
-        <v>517</v>
+        <v>3</v>
+      </c>
+      <c r="D61" s="1">
+        <v>6011</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>658</v>
       </c>
       <c r="F61" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C62" t="s">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>101</v>
+        <v>173</v>
       </c>
       <c r="E62" s="22"/>
       <c r="F62" t="s">
@@ -4046,166 +4082,172 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C63" t="s">
-        <v>99</v>
-      </c>
-      <c r="D63" s="1">
-        <v>172.9</v>
-      </c>
-      <c r="E63" s="22"/>
+        <v>229</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>471</v>
+      </c>
       <c r="F63" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>169</v>
+        <v>59</v>
       </c>
       <c r="B64" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C64" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E64" s="22"/>
+        <v>239</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>471</v>
+      </c>
       <c r="F64" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>331</v>
+        <v>59</v>
       </c>
       <c r="B65" t="s">
-        <v>330</v>
+        <v>217</v>
       </c>
       <c r="C65" t="s">
         <v>58</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="E65" s="20" t="s">
-        <v>586</v>
+        <v>471</v>
       </c>
       <c r="F65" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>288</v>
+        <v>59</v>
       </c>
       <c r="B66" t="s">
-        <v>332</v>
+        <v>217</v>
       </c>
       <c r="C66" t="s">
-        <v>289</v>
+        <v>643</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E66" s="23" t="s">
-        <v>518</v>
+        <v>644</v>
+      </c>
+      <c r="E66" s="20" t="s">
+        <v>471</v>
       </c>
       <c r="F66" t="s">
-        <v>22</v>
+        <v>642</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>308</v>
+        <v>625</v>
+      </c>
+      <c r="B67" t="s">
+        <v>628</v>
       </c>
       <c r="C67" t="s">
-        <v>15</v>
+        <v>626</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E67" s="17" t="s">
-        <v>519</v>
-      </c>
+        <v>627</v>
+      </c>
+      <c r="E67" s="17"/>
       <c r="F67" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>262</v>
+        <v>622</v>
       </c>
       <c r="B68" t="s">
-        <v>260</v>
+        <v>628</v>
       </c>
       <c r="C68" t="s">
-        <v>305</v>
+        <v>624</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>306</v>
-      </c>
+        <v>623</v>
+      </c>
+      <c r="E68" s="17"/>
       <c r="F68" t="s">
-        <v>263</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>269</v>
+        <v>197</v>
       </c>
       <c r="B69" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="C69" t="s">
-        <v>3</v>
+        <v>172</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>270</v>
+        <v>198</v>
       </c>
       <c r="F69" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>271</v>
+        <v>439</v>
       </c>
       <c r="B70" t="s">
-        <v>260</v>
+        <v>440</v>
       </c>
       <c r="C70" t="s">
-        <v>58</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="E70" s="20" t="s">
-        <v>587</v>
+        <v>80</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E70" s="18" t="s">
+        <v>527</v>
       </c>
       <c r="F70" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>261</v>
+        <v>338</v>
       </c>
       <c r="B71" t="s">
-        <v>260</v>
+        <v>609</v>
       </c>
       <c r="C71" t="s">
-        <v>32</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="E71" s="18" t="s">
-        <v>499</v>
+        <v>314</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>502</v>
       </c>
       <c r="F71" t="s">
         <v>20</v>
@@ -4213,233 +4255,245 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>268</v>
+        <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>260</v>
+        <v>608</v>
       </c>
       <c r="C72" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E72" s="17" t="s">
-        <v>532</v>
+        <v>106</v>
       </c>
       <c r="F72" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>264</v>
+        <v>396</v>
       </c>
       <c r="B73" t="s">
-        <v>260</v>
+        <v>397</v>
       </c>
       <c r="C73" t="s">
-        <v>7</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E73" s="18" t="s">
-        <v>514</v>
+        <v>398</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>399</v>
       </c>
       <c r="F73" t="s">
-        <v>266</v>
+        <v>400</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>267</v>
+        <v>649</v>
       </c>
       <c r="B74" t="s">
-        <v>260</v>
+        <v>646</v>
       </c>
       <c r="C74" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E74" s="17" t="s">
-        <v>529</v>
+        <v>647</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>648</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>606</v>
+        <v>193</v>
       </c>
       <c r="B75" t="s">
-        <v>607</v>
+        <v>216</v>
+      </c>
+      <c r="C75" t="s">
+        <v>190</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F75" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>340</v>
+        <v>193</v>
       </c>
       <c r="B76" t="s">
-        <v>339</v>
+        <v>216</v>
       </c>
       <c r="C76" t="s">
-        <v>341</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="E76" s="18" t="s">
-        <v>520</v>
+        <v>236</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>472</v>
       </c>
       <c r="F76" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>56</v>
+        <v>193</v>
       </c>
       <c r="B77" t="s">
-        <v>131</v>
+        <v>216</v>
       </c>
       <c r="C77" t="s">
-        <v>7</v>
+        <v>224</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E77" s="17" t="s">
-        <v>500</v>
+        <v>226</v>
+      </c>
+      <c r="E77" s="20" t="s">
+        <v>472</v>
       </c>
       <c r="F77" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>358</v>
+        <v>42</v>
       </c>
       <c r="B78" t="s">
-        <v>359</v>
+        <v>219</v>
       </c>
       <c r="C78" t="s">
-        <v>360</v>
+        <v>3</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="E78" s="21" t="s">
-        <v>510</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="E78" s="26"/>
       <c r="F78" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>189</v>
+        <v>42</v>
       </c>
       <c r="B79" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C79" t="s">
-        <v>3</v>
-      </c>
-      <c r="D79" s="1">
-        <v>6011</v>
+        <v>107</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E79" s="17" t="s">
+        <v>507</v>
       </c>
       <c r="F79" t="s">
-        <v>19</v>
+        <v>252</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>191</v>
+        <v>42</v>
       </c>
       <c r="B80" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C80" t="s">
-        <v>3</v>
-      </c>
-      <c r="D80" s="1">
-        <v>10025650</v>
+        <v>43</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E80" s="23" t="s">
+        <v>507</v>
       </c>
       <c r="F80" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B81" t="s">
-        <v>608</v>
+        <v>219</v>
       </c>
       <c r="C81" t="s">
-        <v>3</v>
+        <v>250</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>106</v>
+        <v>251</v>
+      </c>
+      <c r="E81" s="23" t="s">
+        <v>507</v>
       </c>
       <c r="F81" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>192</v>
+        <v>46</v>
       </c>
       <c r="B82" t="s">
-        <v>214</v>
+        <v>333</v>
       </c>
       <c r="C82" t="s">
-        <v>172</v>
-      </c>
-      <c r="D82" s="1">
-        <v>321</v>
+        <v>7</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E82" s="23" t="s">
+        <v>501</v>
       </c>
       <c r="F82" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>174</v>
+        <v>65</v>
       </c>
       <c r="B83" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C83" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E83" s="22"/>
+        <v>200</v>
+      </c>
       <c r="F83" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>174</v>
+        <v>65</v>
       </c>
       <c r="B84" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C84" t="s">
-        <v>224</v>
+        <v>58</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E84" s="20" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="F84" t="s">
         <v>63</v>
@@ -4447,21 +4501,37 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>366</v>
+        <v>201</v>
       </c>
       <c r="B85" t="s">
-        <v>367</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="C85" t="s">
+        <v>172</v>
+      </c>
+      <c r="D85" s="1">
+        <v>4050</v>
+      </c>
+      <c r="E85" s="22"/>
       <c r="F85" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>638</v>
+        <v>301</v>
+      </c>
+      <c r="B86" t="s">
+        <v>302</v>
       </c>
       <c r="C86" t="s">
-        <v>58</v>
+        <v>224</v>
+      </c>
+      <c r="D86" s="1">
+        <v>32</v>
+      </c>
+      <c r="E86" s="20" t="s">
+        <v>589</v>
       </c>
       <c r="F86" t="s">
         <v>63</v>
@@ -4469,389 +4539,374 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>59</v>
+        <v>151</v>
       </c>
       <c r="B87" t="s">
-        <v>217</v>
+        <v>521</v>
       </c>
       <c r="C87" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E87" s="22"/>
+        <v>16</v>
+      </c>
+      <c r="E87" s="17" t="s">
+        <v>522</v>
+      </c>
       <c r="F87" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B88" t="s">
-        <v>217</v>
+        <v>323</v>
       </c>
       <c r="C88" t="s">
-        <v>229</v>
+        <v>74</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>230</v>
+        <v>74</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>471</v>
+        <v>508</v>
       </c>
       <c r="F88" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>59</v>
+        <v>195</v>
       </c>
       <c r="B89" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="C89" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E89" s="17" t="s">
-        <v>471</v>
+        <v>378</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>59</v>
+        <v>195</v>
       </c>
       <c r="B90" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="C90" t="s">
-        <v>58</v>
+        <v>380</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E90" s="20" t="s">
-        <v>471</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="E90" s="22"/>
       <c r="F90" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>195</v>
+      </c>
+      <c r="B91" t="s">
+        <v>196</v>
+      </c>
+      <c r="C91" t="s">
+        <v>379</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E91" s="20" t="s">
+        <v>593</v>
+      </c>
+      <c r="F91" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>59</v>
-      </c>
-      <c r="B91" t="s">
-        <v>217</v>
-      </c>
-      <c r="C91" t="s">
-        <v>643</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="E91" s="20" t="s">
-        <v>471</v>
-      </c>
-      <c r="F91" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>193</v>
+        <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>216</v>
+        <v>334</v>
       </c>
       <c r="C92" t="s">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>194</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="E92" s="22"/>
       <c r="F92" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="B93" t="s">
-        <v>216</v>
+        <v>335</v>
       </c>
       <c r="C93" t="s">
-        <v>236</v>
+        <v>190</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E93" s="17" t="s">
-        <v>472</v>
+        <v>4</v>
       </c>
       <c r="F93" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>171</v>
+      </c>
+      <c r="B94" t="s">
+        <v>335</v>
+      </c>
+      <c r="C94" t="s">
+        <v>229</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E94" s="20" t="s">
+        <v>473</v>
+      </c>
+      <c r="F94" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>193</v>
-      </c>
-      <c r="B94" t="s">
-        <v>216</v>
-      </c>
-      <c r="C94" t="s">
-        <v>224</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E94" s="20" t="s">
-        <v>472</v>
-      </c>
-      <c r="F94" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>625</v>
+        <v>171</v>
       </c>
       <c r="B95" t="s">
-        <v>628</v>
+        <v>335</v>
       </c>
       <c r="C95" t="s">
-        <v>626</v>
+        <v>60</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="E95" s="17"/>
+        <v>240</v>
+      </c>
+      <c r="E95" s="20" t="s">
+        <v>473</v>
+      </c>
       <c r="F95" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>622</v>
+        <v>171</v>
       </c>
       <c r="B96" t="s">
-        <v>628</v>
+        <v>335</v>
       </c>
       <c r="C96" t="s">
-        <v>624</v>
+        <v>58</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="E96" s="17"/>
+        <v>228</v>
+      </c>
+      <c r="E96" s="20" t="s">
+        <v>473</v>
+      </c>
       <c r="F96" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>197</v>
+        <v>274</v>
       </c>
       <c r="B97" t="s">
-        <v>218</v>
+        <v>449</v>
       </c>
       <c r="C97" t="s">
-        <v>172</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>198</v>
+        <v>58</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E97" s="20" t="s">
+        <v>579</v>
       </c>
       <c r="F97" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>546</v>
+        <v>317</v>
       </c>
       <c r="C98" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F98" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>275</v>
+      </c>
+      <c r="C99" t="s">
+        <v>58</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E99" s="20" t="s">
+        <v>469</v>
+      </c>
+      <c r="F99" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>275</v>
+      </c>
+      <c r="C100" t="s">
         <v>15</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="E98" s="17" t="s">
-        <v>548</v>
-      </c>
-      <c r="F98" t="s">
+      <c r="D100" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E100" s="20" t="s">
+        <v>469</v>
+      </c>
+      <c r="F100" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>362</v>
-      </c>
-      <c r="C99" t="s">
-        <v>365</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="F99" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>396</v>
-      </c>
-      <c r="B100" t="s">
-        <v>397</v>
-      </c>
-      <c r="C100" t="s">
-        <v>398</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="F100" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>42</v>
-      </c>
-      <c r="B101" t="s">
-        <v>219</v>
+        <v>299</v>
       </c>
       <c r="C101" t="s">
-        <v>3</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>199</v>
+        <v>58</v>
+      </c>
+      <c r="D101" s="1">
+        <v>24747352</v>
+      </c>
+      <c r="E101" s="20" t="s">
+        <v>582</v>
       </c>
       <c r="F101" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>42</v>
-      </c>
-      <c r="B102" t="s">
-        <v>219</v>
+        <v>92</v>
       </c>
       <c r="C102" t="s">
-        <v>107</v>
+        <v>156</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>108</v>
+        <v>156</v>
       </c>
       <c r="E102" s="17" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="F102" t="s">
-        <v>252</v>
+        <v>159</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>42</v>
-      </c>
-      <c r="B103" t="s">
-        <v>219</v>
+        <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>43</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E103" s="21" t="s">
-        <v>507</v>
+        <v>241</v>
+      </c>
+      <c r="D103" s="1">
+        <v>13961</v>
+      </c>
+      <c r="E103" s="26" t="s">
+        <v>511</v>
       </c>
       <c r="F103" t="s">
-        <v>20</v>
+        <v>242</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>42</v>
-      </c>
-      <c r="B104" t="s">
-        <v>219</v>
+        <v>351</v>
       </c>
       <c r="C104" t="s">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E104" s="21" t="s">
-        <v>507</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="E104" s="26"/>
       <c r="F104" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="C105" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E105" s="21" t="s">
-        <v>515</v>
+        <v>144</v>
+      </c>
+      <c r="E105" s="27" t="s">
+        <v>583</v>
       </c>
       <c r="F105" t="s">
-        <v>238</v>
+        <v>63</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>151</v>
-      </c>
-      <c r="B106" t="s">
-        <v>521</v>
+        <v>636</v>
       </c>
       <c r="C106" t="s">
-        <v>152</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E106" s="17" t="s">
-        <v>522</v>
+        <v>58</v>
+      </c>
+      <c r="D106" s="1">
+        <v>4185</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>637</v>
       </c>
       <c r="F106" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>301</v>
-      </c>
-      <c r="B107" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C107" t="s">
-        <v>224</v>
+        <v>58</v>
       </c>
       <c r="D107" s="1">
-        <v>32</v>
+        <v>32176418</v>
       </c>
       <c r="E107" s="20" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="F107" t="s">
         <v>63</v>
@@ -4859,73 +4914,63 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>65</v>
-      </c>
-      <c r="B108" t="s">
-        <v>220</v>
+        <v>601</v>
       </c>
       <c r="C108" t="s">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>200</v>
+        <v>9</v>
+      </c>
+      <c r="E108" s="17" t="s">
+        <v>488</v>
       </c>
       <c r="F108" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>65</v>
-      </c>
-      <c r="B109" t="s">
-        <v>220</v>
+        <v>304</v>
       </c>
       <c r="C109" t="s">
-        <v>58</v>
+        <v>305</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E109" s="20" t="s">
-        <v>590</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="E109" s="22"/>
       <c r="F109" t="s">
-        <v>63</v>
+        <v>263</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>296</v>
+        <v>109</v>
       </c>
       <c r="C110" t="s">
-        <v>297</v>
+        <v>402</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E110" s="23" t="s">
-        <v>485</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="E110" s="22"/>
       <c r="F110" t="s">
-        <v>263</v>
+        <v>400</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>46</v>
-      </c>
-      <c r="B111" t="s">
-        <v>333</v>
+        <v>109</v>
       </c>
       <c r="C111" t="s">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="E111" s="23" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="F111" t="s">
         <v>20</v>
@@ -4933,111 +4978,108 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>310</v>
+        <v>78</v>
       </c>
       <c r="C112" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E112" s="23" t="s">
-        <v>523</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="E112" s="22"/>
       <c r="F112" t="s">
-        <v>22</v>
+        <v>263</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>201</v>
-      </c>
-      <c r="B113" t="s">
-        <v>221</v>
+        <v>78</v>
       </c>
       <c r="C113" t="s">
-        <v>172</v>
-      </c>
-      <c r="D113" s="1">
-        <v>4050</v>
-      </c>
-      <c r="E113" s="22"/>
+        <v>80</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E113" s="23" t="s">
+        <v>528</v>
+      </c>
       <c r="F113" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>549</v>
+        <v>81</v>
       </c>
       <c r="C114" t="s">
-        <v>551</v>
+        <v>83</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="E114" s="22"/>
-    </row>
-    <row r="115" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="E114" s="23" t="s">
+        <v>496</v>
+      </c>
+      <c r="F114" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>141</v>
+        <v>316</v>
       </c>
       <c r="C115" t="s">
-        <v>58</v>
-      </c>
-      <c r="D115" t="s">
-        <v>142</v>
-      </c>
-      <c r="E115" s="20" t="s">
-        <v>591</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E115" s="22"/>
       <c r="F115" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>222</v>
+        <v>308</v>
       </c>
       <c r="C116" t="s">
-        <v>190</v>
+        <v>15</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>202</v>
+        <v>16</v>
+      </c>
+      <c r="E116" s="17" t="s">
+        <v>519</v>
       </c>
       <c r="F116" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>88</v>
+        <v>638</v>
       </c>
       <c r="C117" t="s">
-        <v>90</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E117" s="17" t="s">
-        <v>530</v>
+        <v>58</v>
       </c>
       <c r="F117" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>312</v>
+        <v>546</v>
       </c>
       <c r="C118" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>45</v>
+        <v>547</v>
       </c>
       <c r="E118" s="21" t="s">
-        <v>524</v>
+        <v>548</v>
       </c>
       <c r="F118" t="s">
         <v>22</v>
@@ -5045,290 +5087,262 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>338</v>
-      </c>
-      <c r="B119" t="s">
-        <v>609</v>
+        <v>362</v>
       </c>
       <c r="C119" t="s">
-        <v>314</v>
+        <v>365</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E119" s="17" t="s">
-        <v>502</v>
+        <v>363</v>
       </c>
       <c r="F119" t="s">
-        <v>20</v>
+        <v>364</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>343</v>
+        <v>134</v>
       </c>
       <c r="C120" t="s">
-        <v>344</v>
+        <v>135</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="E120" s="17" t="s">
-        <v>503</v>
+        <v>136</v>
+      </c>
+      <c r="E120" s="23" t="s">
+        <v>515</v>
       </c>
       <c r="F120" t="s">
-        <v>20</v>
+        <v>238</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>483</v>
-      </c>
-      <c r="E121" s="17" t="s">
-        <v>484</v>
+        <v>296</v>
+      </c>
+      <c r="C121" t="s">
+        <v>297</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E121" s="23" t="s">
+        <v>485</v>
       </c>
       <c r="F121" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>57</v>
+        <v>310</v>
       </c>
       <c r="C122" t="s">
-        <v>58</v>
+        <v>311</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E122" s="20" t="s">
-        <v>592</v>
+        <v>16</v>
+      </c>
+      <c r="E122" s="23" t="s">
+        <v>523</v>
       </c>
       <c r="F122" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>243</v>
+        <v>549</v>
       </c>
       <c r="C123" t="s">
-        <v>245</v>
+        <v>551</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F123" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+        <v>550</v>
+      </c>
+      <c r="E123" s="22"/>
+    </row>
+    <row r="124" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>243</v>
+        <v>141</v>
       </c>
       <c r="C124" t="s">
-        <v>247</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>244</v>
+        <v>58</v>
+      </c>
+      <c r="D124" t="s">
+        <v>142</v>
+      </c>
+      <c r="E124" s="20" t="s">
+        <v>591</v>
       </c>
       <c r="F124" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>93</v>
-      </c>
-      <c r="B125" t="s">
-        <v>334</v>
+        <v>222</v>
       </c>
       <c r="C125" t="s">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E125" s="22"/>
+        <v>202</v>
+      </c>
       <c r="F125" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>195</v>
-      </c>
-      <c r="B126" t="s">
-        <v>196</v>
+        <v>88</v>
       </c>
       <c r="C126" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>378</v>
+        <v>89</v>
+      </c>
+      <c r="E126" s="17" t="s">
+        <v>530</v>
       </c>
       <c r="F126" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>195</v>
-      </c>
-      <c r="B127" t="s">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="C127" t="s">
-        <v>380</v>
+        <v>44</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="E127" s="22"/>
+        <v>45</v>
+      </c>
+      <c r="E127" s="23" t="s">
+        <v>524</v>
+      </c>
       <c r="F127" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>195</v>
-      </c>
-      <c r="B128" t="s">
-        <v>196</v>
+        <v>343</v>
       </c>
       <c r="C128" t="s">
-        <v>379</v>
+        <v>344</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="E128" s="20" t="s">
-        <v>593</v>
+        <v>345</v>
+      </c>
+      <c r="E128" s="17" t="s">
+        <v>503</v>
       </c>
       <c r="F128" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>155</v>
-      </c>
-      <c r="C129" t="s">
-        <v>7</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>157</v>
+        <v>483</v>
+      </c>
+      <c r="E129" s="17" t="s">
+        <v>484</v>
       </c>
       <c r="F129" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="C130" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E130" s="17" t="s">
-        <v>504</v>
+        <v>69</v>
+      </c>
+      <c r="E130" s="20" t="s">
+        <v>592</v>
       </c>
       <c r="F130" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>24</v>
+        <v>243</v>
       </c>
       <c r="C131" t="s">
-        <v>104</v>
+        <v>245</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>105</v>
+        <v>246</v>
       </c>
       <c r="F131" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>171</v>
-      </c>
-      <c r="B132" t="s">
-        <v>335</v>
+        <v>243</v>
       </c>
       <c r="C132" t="s">
-        <v>190</v>
+        <v>247</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>4</v>
+        <v>244</v>
       </c>
       <c r="F132" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>171</v>
-      </c>
-      <c r="B133" t="s">
-        <v>335</v>
+        <v>155</v>
       </c>
       <c r="C133" t="s">
-        <v>229</v>
+        <v>7</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E133" s="20" t="s">
-        <v>473</v>
+        <v>157</v>
       </c>
       <c r="F133" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>112</v>
+      </c>
+      <c r="C134" t="s">
+        <v>113</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E134" s="17" t="s">
+        <v>504</v>
+      </c>
+      <c r="F134" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>171</v>
-      </c>
-      <c r="B134" t="s">
-        <v>335</v>
-      </c>
-      <c r="C134" t="s">
-        <v>60</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E134" s="20" t="s">
-        <v>473</v>
-      </c>
-      <c r="F134" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>171</v>
-      </c>
-      <c r="B135" t="s">
-        <v>335</v>
+        <v>24</v>
       </c>
       <c r="C135" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E135" s="20" t="s">
-        <v>473</v>
+        <v>105</v>
       </c>
       <c r="F135" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
@@ -5446,91 +5460,92 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E121" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E110" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E11" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E18" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E33" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E42" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E46" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="E45" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E52" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E58" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E71" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="E77" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E90" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="E88" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="E94" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="E93" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="E111" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="E119" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="E120" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="E130" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E135" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="E133" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E129" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E121" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E108" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E24" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E30" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E114" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E31" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E35" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E48" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E53" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E65" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E63" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E77" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="E76" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E82" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E71" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E128" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="E134" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E96" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="E94" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
     <hyperlink ref="E136" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
     <hyperlink ref="E140" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="E102" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="E24" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="E25" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="E78" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="E19" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="E16" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="E103" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="E73" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="E105" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="E41" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="E13" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="E14" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="E51" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="E49" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="E61" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="E66" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="E67" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="E76" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="E106" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="E112" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="E118" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="E79" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="E88" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E19" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="E54" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="E10" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="E102" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="E80" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="E50" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="E120" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="E111" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="E99" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="E100" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="E44" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="E42" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="E37" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="E5" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="E116" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="E52" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="E87" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="E122" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="E127" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
     <hyperlink ref="E137" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="E37" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="E89" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="E104" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="E134" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="E5" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="E44" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="E74" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="E117" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="E72" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="E98" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="E4" r:id="rId58" xr:uid="{825946A5-7603-C044-A1ED-5DFB710CCC32}"/>
-    <hyperlink ref="E6" r:id="rId59" xr:uid="{FD158683-3B6D-5746-B18B-2EE0D82F6988}"/>
+    <hyperlink ref="E26" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="E64" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="E81" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="E95" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="E70" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="E113" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="E51" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="E126" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="E49" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="E118" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="E97" r:id="rId58" xr:uid="{825946A5-7603-C044-A1ED-5DFB710CCC32}"/>
+    <hyperlink ref="E11" r:id="rId59" xr:uid="{FD158683-3B6D-5746-B18B-2EE0D82F6988}"/>
     <hyperlink ref="E12" r:id="rId60" xr:uid="{A20E0F88-5F11-A84A-99EC-70E56D6AD082}"/>
-    <hyperlink ref="E15" r:id="rId61" xr:uid="{B60B699C-227F-DE49-8ADC-79C3DAF24C0A}"/>
-    <hyperlink ref="E27" r:id="rId62" xr:uid="{026298CB-933D-9040-86E1-D09032C3B48C}"/>
-    <hyperlink ref="E32" r:id="rId63" xr:uid="{10DA05A2-F168-9740-930A-20A2CFDB85CD}"/>
-    <hyperlink ref="E39" r:id="rId64" xr:uid="{C05A8584-E4EC-064E-87C7-470067DC1951}"/>
-    <hyperlink ref="E65" r:id="rId65" xr:uid="{D129A365-15A2-BB49-81CC-4687F856FD72}"/>
-    <hyperlink ref="E70" r:id="rId66" xr:uid="{ADCC0030-AB04-0948-946A-E764F646F385}"/>
-    <hyperlink ref="E84" r:id="rId67" xr:uid="{4E549E93-BA20-104C-8247-757330B80787}"/>
-    <hyperlink ref="E107" r:id="rId68" xr:uid="{6CC08784-4347-244A-A91F-E1B1B93171D1}"/>
-    <hyperlink ref="E109" r:id="rId69" xr:uid="{DFB6A346-A94F-D54F-9ABE-7DA2901A8DEE}"/>
-    <hyperlink ref="E115" r:id="rId70" xr:uid="{F3EA3D1D-EC67-FD46-9854-671202017F20}"/>
-    <hyperlink ref="E122" r:id="rId71" xr:uid="{23FA832C-F8F6-F745-8615-2CD78F682C17}"/>
-    <hyperlink ref="E128" r:id="rId72" xr:uid="{F2F01274-9578-4D42-B262-C0615D5B5CCA}"/>
+    <hyperlink ref="E101" r:id="rId61" xr:uid="{B60B699C-227F-DE49-8ADC-79C3DAF24C0A}"/>
+    <hyperlink ref="E105" r:id="rId62" xr:uid="{026298CB-933D-9040-86E1-D09032C3B48C}"/>
+    <hyperlink ref="E107" r:id="rId63" xr:uid="{10DA05A2-F168-9740-930A-20A2CFDB85CD}"/>
+    <hyperlink ref="E27" r:id="rId64" xr:uid="{C05A8584-E4EC-064E-87C7-470067DC1951}"/>
+    <hyperlink ref="E41" r:id="rId65" xr:uid="{D129A365-15A2-BB49-81CC-4687F856FD72}"/>
+    <hyperlink ref="E47" r:id="rId66" xr:uid="{ADCC0030-AB04-0948-946A-E764F646F385}"/>
+    <hyperlink ref="E58" r:id="rId67" xr:uid="{4E549E93-BA20-104C-8247-757330B80787}"/>
+    <hyperlink ref="E86" r:id="rId68" xr:uid="{6CC08784-4347-244A-A91F-E1B1B93171D1}"/>
+    <hyperlink ref="E84" r:id="rId69" xr:uid="{DFB6A346-A94F-D54F-9ABE-7DA2901A8DEE}"/>
+    <hyperlink ref="E124" r:id="rId70" xr:uid="{F3EA3D1D-EC67-FD46-9854-671202017F20}"/>
+    <hyperlink ref="E130" r:id="rId71" xr:uid="{23FA832C-F8F6-F745-8615-2CD78F682C17}"/>
+    <hyperlink ref="E91" r:id="rId72" xr:uid="{F2F01274-9578-4D42-B262-C0615D5B5CCA}"/>
     <hyperlink ref="E142" r:id="rId73" xr:uid="{B620642D-E8F9-9F47-B3A3-D0CBBDF44C1F}"/>
-    <hyperlink ref="E54" r:id="rId74" xr:uid="{7055F91B-9AA6-5049-A272-9BAC2909E5B5}"/>
-    <hyperlink ref="E28" r:id="rId75" xr:uid="{9DA920DB-3925-834A-83A7-0E9330B68682}"/>
-    <hyperlink ref="E91" r:id="rId76" xr:uid="{DAEF863D-F259-C441-BA63-7AC380C805E1}"/>
-    <hyperlink ref="E57" r:id="rId77" xr:uid="{E57614A4-3EEB-2C4F-970D-45AB14841A02}"/>
-    <hyperlink ref="E56" r:id="rId78" xr:uid="{05CA1572-1566-4042-BE73-394120969439}"/>
-    <hyperlink ref="E29" r:id="rId79" xr:uid="{D0C6DE66-F074-F246-B9F9-87E1E5021467}"/>
-    <hyperlink ref="E36" r:id="rId80" xr:uid="{9E13517F-ED70-8A4C-BD86-465A38C8F7F5}"/>
+    <hyperlink ref="E32" r:id="rId74" xr:uid="{7055F91B-9AA6-5049-A272-9BAC2909E5B5}"/>
+    <hyperlink ref="E106" r:id="rId75" xr:uid="{9DA920DB-3925-834A-83A7-0E9330B68682}"/>
+    <hyperlink ref="E66" r:id="rId76" xr:uid="{DAEF863D-F259-C441-BA63-7AC380C805E1}"/>
+    <hyperlink ref="E34" r:id="rId77" xr:uid="{E57614A4-3EEB-2C4F-970D-45AB14841A02}"/>
+    <hyperlink ref="E33" r:id="rId78" xr:uid="{05CA1572-1566-4042-BE73-394120969439}"/>
+    <hyperlink ref="E74" r:id="rId79" xr:uid="{D0C6DE66-F074-F246-B9F9-87E1E5021467}"/>
+    <hyperlink ref="E20" r:id="rId80" xr:uid="{9E13517F-ED70-8A4C-BD86-465A38C8F7F5}"/>
+    <hyperlink ref="E61" r:id="rId81" xr:uid="{D3F22BCF-F4B9-484E-8B94-595092FC4E15}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId81"/>
+  <pageSetup orientation="portrait" r:id="rId82"/>
   <tableParts count="1">
-    <tablePart r:id="rId82"/>
+    <tablePart r:id="rId83"/>
   </tableParts>
 </worksheet>
 </file>
